--- a/BaswareAutomation/test/TestDataProvideInSBS.xlsx
+++ b/BaswareAutomation/test/TestDataProvideInSBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaswareAutomation\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\BaswareAutomation\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Environment</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>EXON</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>S00011626001</t>
   </si>
   <si>
-    <t>Inv-C119/1/StdPO/1</t>
-  </si>
-  <si>
     <t>NatureCode</t>
   </si>
   <si>
@@ -147,6 +141,18 @@
   </si>
   <si>
     <t>Invoice</t>
+  </si>
+  <si>
+    <t>Test119/1</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>D200E</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -231,9 +237,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -250,6 +253,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +562,8 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
@@ -576,14 +587,14 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -606,7 +617,7 @@
       <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -625,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>13</v>
@@ -644,83 +655,83 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="T2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="10">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>36</v>
+      <c r="Y2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
